--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2091943.03556345</v>
+        <v>2158801.617949283</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903705</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768293</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7012471.180341804</v>
+        <v>7226333.72292357</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.24371773405238</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>170.7481240559725</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>156.6335332785339</v>
+        <v>133.1960204883557</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>172.8970899955588</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>76.33211384749279</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>38.12750047194527</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>93.60791859913577</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>281.5136652817123</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>28.63433626345935</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>36.34992104302653</v>
+        <v>186.5768411754254</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>76.95899994452154</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>271.4342543713333</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1528,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.26594387726834</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1588,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>50.25897109129162</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>128.2026151578589</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1901,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2002,16 +2004,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0564489160608</v>
+        <v>66.60889756510008</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>243.833185100996</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2241,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2296,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>79.20507481715842</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>55.62709520730909</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>356.9224994274309</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>108.0841303079663</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>114.3571814058518</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>304.7162152260364</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.6116716601516</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2776,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.8925348129166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>177.3516742227375</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>22.49891413969666</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>213.8235248963362</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.39821614919738</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>229.2663389906592</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3272,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>372.3536886992977</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3424,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>38.79482613622854</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>142.5359303380066</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3508,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3667,7 +3669,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.56032144960777</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>108.0255674923263</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>262.2425928248799</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>130.1445654147898</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3803,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.36042284486177</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>220.2647746254023</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>24.34551199836937</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4189,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>201.2143458795234</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>93.17492089670182</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.3313057386429</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>882.247119092317</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>881.8235932257816</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>497.1688317915616</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.075159870194</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>962.3148590053625</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>962.3148590053625</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.3148590053625</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4416,19 +4418,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184966</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1331.331388891389</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="C4" t="n">
-        <v>1160.238016453105</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>1000.743371776015</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>839.8325566443344</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>2002.981563155502</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1763.432824132204</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1763.432824132204</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1489.547079071726</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W4" t="n">
-        <v>1489.547079071726</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X4" t="n">
-        <v>1331.331388891389</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="Y4" t="n">
-        <v>1331.331388891389</v>
+        <v>329.2045039635594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.723472461974</v>
+        <v>654.2465468795142</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>648.1623602331883</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>647.7388343666529</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>233.3986188835496</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>216.4086108776412</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,13 +4570,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
         <v>1014.011766457887</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2011.151136179604</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1788.944652126463</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1788.944652126463</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1788.944652126463</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1788.944652126463</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>1788.944652126463</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>1788.944652126463</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>583.2526017710895</v>
+        <v>488.6991486406494</v>
       </c>
       <c r="C7" t="n">
-        <v>412.159229332806</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D7" t="n">
-        <v>373.6466025934674</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4750,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1476.610529120012</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1476.610529120012</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1193.812381666136</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.365834796576</v>
+        <v>1193.812381666136</v>
       </c>
       <c r="W7" t="n">
-        <v>1009.29617030545</v>
+        <v>914.7427171750103</v>
       </c>
       <c r="X7" t="n">
-        <v>770.9523081651339</v>
+        <v>676.3988550346937</v>
       </c>
       <c r="Y7" t="n">
-        <v>770.9523081651339</v>
+        <v>676.3988550346937</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>758.3483279138347</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>348.2237372271048</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>347.8002113605694</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>1558.042465712245</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>2334.361056703999</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4271.962701385146</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>4049.756217332004</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>3792.695725591514</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="W8" t="n">
-        <v>1569.212905409372</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="X8" t="n">
-        <v>1168.569507578324</v>
+        <v>3042.214773096948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1168.569507578324</v>
+        <v>2641.278100045038</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.4914807361952</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="C10" t="n">
-        <v>810.3981082979117</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="D10" t="n">
-        <v>650.9034636208218</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1189.476114944831</v>
       </c>
       <c r="U10" t="n">
-        <v>1534.446890287799</v>
+        <v>1001.014659212078</v>
       </c>
       <c r="V10" t="n">
-        <v>1260.561145227321</v>
+        <v>1001.014659212078</v>
       </c>
       <c r="W10" t="n">
-        <v>981.4914807361952</v>
+        <v>721.9449947209523</v>
       </c>
       <c r="X10" t="n">
-        <v>981.4914807361952</v>
+        <v>721.9449947209523</v>
       </c>
       <c r="Y10" t="n">
-        <v>981.4914807361952</v>
+        <v>721.9449947209523</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1369.737571496755</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C11" t="n">
-        <v>959.6129808100251</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D11" t="n">
-        <v>881.8766172297003</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E11" t="n">
-        <v>881.8766172297003</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3572.197169313043</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3315.136677572553</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2965.299122909033</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2581.538822044202</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2180.895424213154</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1779.958751161244</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>736.976244986612</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>1579.953325681179</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N12" t="n">
-        <v>1579.953325681179</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O12" t="n">
-        <v>2122.377268917824</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>655.3165903355377</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>495.8219456584478</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>334.9111305267672</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>170.2800046373585</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>170.2800046373585</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732367</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732367</v>
+        <v>826.4099627738212</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2531.835765352786</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2121.711174666056</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1717.247244759116</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>330.073544535078</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>730.3988389146983</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3794.403653366184</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T14" t="n">
-        <v>3794.403653366184</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U14" t="n">
-        <v>3794.403653366184</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V14" t="n">
-        <v>3794.403653366184</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W14" t="n">
-        <v>3743.637015900233</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X14" t="n">
-        <v>3342.993618069185</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y14" t="n">
-        <v>2942.056945017275</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>575.4430976773626</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1418.420178371929</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1418.420178371929</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165.22192336846</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="C16" t="n">
-        <v>994.1285509301767</v>
+        <v>383.6521038908477</v>
       </c>
       <c r="D16" t="n">
-        <v>834.6339062530867</v>
+        <v>383.6521038908477</v>
       </c>
       <c r="E16" t="n">
-        <v>673.7230911214062</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1520.014251363573</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1520.014251363573</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1520.014251363573</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1520.014251363573</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>1520.014251363573</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X16" t="n">
-        <v>1520.014251363573</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y16" t="n">
-        <v>1352.921629762505</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.237727455811</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>2615.69568868064</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M18" t="n">
-        <v>3458.672769375206</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N18" t="n">
-        <v>3928.668274622616</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O18" t="n">
-        <v>4632.62536516851</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>4632.62536516851</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1305.890776781221</v>
+        <v>1283.696393154561</v>
       </c>
       <c r="U19" t="n">
-        <v>1023.092629327345</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="V19" t="n">
-        <v>1023.092629327345</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="W19" t="n">
-        <v>744.0229648362191</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="X19" t="n">
-        <v>505.6791026959025</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>776.1625470894494</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.244377387751</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>3953.446229933875</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>3679.560484873397</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W22" t="n">
-        <v>3400.490820382272</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X22" t="n">
-        <v>3320.485694304334</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y22" t="n">
-        <v>3320.485694304334</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.572457336103</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6066,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>947.1447271725442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>947.1447271725442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1820.802819284162</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>254.1545128223033</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C25" t="n">
-        <v>254.1545128223033</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1513.466705111507</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.917966088209</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>991.1198186343333</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V25" t="n">
-        <v>717.2340735738553</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W25" t="n">
-        <v>717.2340735738553</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="X25" t="n">
-        <v>478.8902114335386</v>
+        <v>555.9503532121125</v>
       </c>
       <c r="Y25" t="n">
-        <v>254.1545128223033</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2459.725286714852</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.600696028122</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1645.136766121183</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>1230.796550638079</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>809.7661385917668</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>401.0378544845989</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.8317148059963</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="C28" t="n">
-        <v>252.7383423677128</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>913.9039397142094</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>913.9039397142094</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>634.8342752230838</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>634.8342752230838</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.8317148059963</v>
+        <v>311.2176947581669</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.968196018315</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="C31" t="n">
-        <v>257.8748235800315</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D31" t="n">
-        <v>257.8748235800315</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1220.267467710235</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>1220.267467710235</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V31" t="n">
-        <v>946.3817226497573</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W31" t="n">
-        <v>667.3120581586317</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X31" t="n">
-        <v>428.968196018315</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="Y31" t="n">
-        <v>428.968196018315</v>
+        <v>276.8806887209868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1688.585879914052</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1274.245664430949</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>853.2152523846366</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6743,7 +6745,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>597.0490607929837</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="X34" t="n">
-        <v>1384.298732171156</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1159.563033559921</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6922,10 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>911.5343697921442</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -7014,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.231502096085</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1478.666907101365</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1478.666907101365</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.666907101365</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V37" t="n">
-        <v>1478.666907101365</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.666907101365</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X37" t="n">
-        <v>1478.666907101365</v>
+        <v>320.1300971515647</v>
       </c>
       <c r="Y37" t="n">
-        <v>1253.93120849013</v>
+        <v>320.1300971515647</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4011.405617385543</v>
+        <v>591.0821058804529</v>
       </c>
       <c r="C40" t="n">
-        <v>3840.31224494726</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D40" t="n">
-        <v>3680.81760027017</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>3519.906785138489</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>3519.906785138489</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>3352.656394064033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3203.048938869489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1241.861373026049</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1241.861373026049</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>1241.861373026049</v>
       </c>
       <c r="X40" t="n">
-        <v>4423.841022390823</v>
+        <v>1003.517510885733</v>
       </c>
       <c r="Y40" t="n">
-        <v>4199.105323779588</v>
+        <v>778.7818122744973</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1725.847221190409</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C41" t="n">
-        <v>1315.722630503679</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D41" t="n">
-        <v>911.2587005967393</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E41" t="n">
-        <v>496.9184851136361</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F41" t="n">
-        <v>75.88807306732367</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G41" t="n">
-        <v>75.88807306732367</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>788.4794728795617</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1564.798063871316</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2317.979080509934</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2961.609936927039</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3490.76663484619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3527.663421175649</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3270.602929435159</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2920.765374771639</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2537.005073906808</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2537.005073906808</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2136.068400854898</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>687.0132843176757</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>687.0132843176757</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>1560.671376429294</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O42" t="n">
-        <v>1560.671376429294</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2921.134714881797</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="C43" t="n">
-        <v>2750.041342443514</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D43" t="n">
-        <v>2590.546697766424</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>2429.635882634743</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>2265.004756745334</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>2265.004756745334</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>2265.004756745334</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>2265.004756745334</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>2279.087306150545</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.639633872783</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>2693.536734152843</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>2982.800790593336</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>3263.639572987587</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>3523.200183314061</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>3728.875623563673</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>3794.403653366184</v>
+        <v>4591.113750344411</v>
       </c>
       <c r="U43" t="n">
-        <v>3794.403653366184</v>
+        <v>4308.315602890535</v>
       </c>
       <c r="V43" t="n">
-        <v>3794.403653366184</v>
+        <v>4034.429857830057</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.913982027394</v>
+        <v>3755.360193338931</v>
       </c>
       <c r="X43" t="n">
-        <v>3333.570119887077</v>
+        <v>3517.016331198615</v>
       </c>
       <c r="Y43" t="n">
-        <v>3108.834421275842</v>
+        <v>3292.280632587379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1234.456496290856</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
-        <v>1234.456496290856</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D44" t="n">
-        <v>1234.456496290856</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E44" t="n">
-        <v>820.1162808077527</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>820.1162808077527</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>411.3879967005848</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>100.4794993283028</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>788.4794728795617</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1564.798063871316</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2317.979080509934</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2961.609936927039</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3490.76663484619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1644.677675955345</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>268.7009306299569</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>268.7009306299569</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L45" t="n">
-        <v>268.7009306299569</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M45" t="n">
-        <v>1111.678011324524</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1111.678011324524</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1531.111857066664</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2092.817749555194</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.2318365800638</v>
+        <v>3558.234133677597</v>
       </c>
       <c r="C46" t="n">
-        <v>243.1384641417803</v>
+        <v>3558.234133677597</v>
       </c>
       <c r="D46" t="n">
-        <v>243.1384641417803</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="E46" t="n">
-        <v>243.1384641417803</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>243.1384641417803</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1418.895201568084</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1179.346462544786</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>896.5483150909101</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V46" t="n">
-        <v>693.3015010711895</v>
+        <v>3877.085914002672</v>
       </c>
       <c r="W46" t="n">
-        <v>414.2318365800638</v>
+        <v>3782.969832288832</v>
       </c>
       <c r="X46" t="n">
-        <v>414.2318365800638</v>
+        <v>3782.969832288832</v>
       </c>
       <c r="Y46" t="n">
-        <v>414.2318365800638</v>
+        <v>3558.234133677597</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595825</v>
       </c>
       <c r="M2" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -8000,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,10 +8066,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6762761514423</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175288</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8076,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8292,16 +8294,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>558.5343765177347</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8310,7 +8312,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>782.0306179295947</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>885.2086776792868</v>
       </c>
       <c r="O9" t="n">
-        <v>72.23607294538775</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,10 +8692,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L11" t="n">
-        <v>321.6302927653073</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>651.5171678328039</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>605.654451966308</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,10 +8929,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>499.8543822846835</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>167.8946794718224</v>
       </c>
       <c r="N18" t="n">
-        <v>527.9363279870931</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9261,7 +9263,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9714,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O24" t="n">
-        <v>379.9030691585463</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9957,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>461.302781541648</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,16 +10430,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>177.1904702224191</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10446,10 +10448,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
@@ -10674,7 +10676,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10683,7 +10685,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>89.84900189613728</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10908,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>147.9380505529371</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>396.7378635102566</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11141,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>213.0023571290847</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>396.7378635102566</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>408.9682935664456</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
@@ -11388,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>481.4220302546868</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>323.4602906633485</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>71.84543676532957</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300467</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>329.6637267648915</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19.90876548473901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23719,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>108.0968027170041</v>
+        <v>170.5443540679648</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>156.755348701755</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>166.8612464178138</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.1964684404137</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>76.44372013092257</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>108.1311602192711</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.08319717252283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>62.37314297036308</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.59580681220635</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.883524574204</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>23.32972673672873</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.42449318090657</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>41.88054861921404</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>37.84312462897452</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>126.7830610274835</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.99192010088223</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25394,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>45.62226398710933</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>171.9445984870108</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.83985379781998</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25837,16 +25839,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7928287882031</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>56.01419322081205</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>61.1427330577282</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>69.93254173034981</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>183.1040469495125</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>670843.2971536255</v>
+        <v>679560.6202053037</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>538316.0044446669</v>
+        <v>608751.8266840259</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>538316.0044446671</v>
+        <v>608751.826684026</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608751.8266840259</v>
+        <v>608751.826684026</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608751.8266840259</v>
+        <v>608751.8266840262</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840259</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608751.8266840259</v>
+        <v>608751.826684026</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>538316.004444667</v>
+        <v>608751.826684026</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>538316.0044446669</v>
+        <v>608751.826684026</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>488647.1790973709</v>
       </c>
       <c r="C2" t="n">
-        <v>488647.1790973709</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="D2" t="n">
-        <v>488647.1790973707</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="F2" t="n">
-        <v>384210.296679209</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="G2" t="n">
         <v>434473.0013026407</v>
@@ -26332,10 +26334,10 @@
         <v>434473.0013026407</v>
       </c>
       <c r="I2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="J2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="K2" t="n">
         <v>434473.0013026408</v>
@@ -26344,16 +26346,16 @@
         <v>434473.0013026408</v>
       </c>
       <c r="M2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="N2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="O2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="P2" t="n">
-        <v>384210.296679209</v>
+        <v>434473.0013026405</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>174432.0962319951</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
@@ -26451,13 +26453,13 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="O4" t="n">
         <v>30192.61954398331</v>
       </c>
-      <c r="O4" t="n">
-        <v>26671.1703202895</v>
-      </c>
       <c r="P4" t="n">
-        <v>26671.1703202895</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73890.50789376421</v>
+        <v>73890.50789376424</v>
       </c>
       <c r="C6" t="n">
-        <v>248846.0177868783</v>
+        <v>248846.0177868781</v>
       </c>
       <c r="D6" t="n">
-        <v>248846.0177868781</v>
+        <v>131938.6462846404</v>
       </c>
       <c r="E6" t="n">
-        <v>172509.5240380031</v>
+        <v>306446.2173328499</v>
       </c>
       <c r="F6" t="n">
-        <v>299864.1908277536</v>
+        <v>333415.171513784</v>
       </c>
       <c r="G6" t="n">
-        <v>273953.7168278223</v>
+        <v>333415.1715137841</v>
       </c>
       <c r="H6" t="n">
-        <v>333415.171513784</v>
+        <v>333415.1715137841</v>
       </c>
       <c r="I6" t="n">
-        <v>333415.171513784</v>
+        <v>333415.1715137842</v>
       </c>
       <c r="J6" t="n">
-        <v>196820.370707889</v>
+        <v>196820.3707078891</v>
       </c>
       <c r="K6" t="n">
         <v>333415.1715137842</v>
       </c>
       <c r="L6" t="n">
+        <v>193415.8606490315</v>
+      </c>
+      <c r="M6" t="n">
+        <v>310905.9067397366</v>
+      </c>
+      <c r="N6" t="n">
         <v>333415.1715137842</v>
       </c>
-      <c r="M6" t="n">
-        <v>227120.3594959092</v>
-      </c>
-      <c r="N6" t="n">
-        <v>333415.171513784</v>
-      </c>
       <c r="O6" t="n">
-        <v>299864.1908277537</v>
+        <v>333415.1715137842</v>
       </c>
       <c r="P6" t="n">
-        <v>299864.1908277536</v>
+        <v>333415.1715137839</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.8752501337922</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.3268902403795</v>
+        <v>102.7644030305577</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>231.7439112705374</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>57.59615060634735</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119.7721977583738</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>90.91993183975306</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>128.6831480465599</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>105.2939281903808</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>243.6202449363105</v>
+        <v>93.3933248039117</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="M2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34796,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>460.0037840019794</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>500.9700927793173</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>686.5452198667498</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>832.0152842855368</v>
       </c>
       <c r="O9" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1448947024625</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>547.902972966308</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>404.3689842218387</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>504.6010349596353</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>110.3303957334049</v>
       </c>
       <c r="N18" t="n">
-        <v>474.7429345933431</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O24" t="n">
-        <v>322.1515901585462</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>121.3646874378037</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>90.37376681451964</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>306.7040591111045</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>156.8878333182357</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>306.7040591111045</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>353.1425107818302</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>423.6705512546868</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158801.617949283</v>
+        <v>2157488.972493703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>3.023043968425579</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,10 +718,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>221.5192431446967</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>274.8088362399193</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>98.47054531741006</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.63433626345935</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>27.79744670745611</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1293,16 +1293,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754254</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>50.63388649156005</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.79036888332048</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1618,7 +1618,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>279.808646299486</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>179.4591501712112</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1903,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>343.4619167409749</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2335,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>181.3544426063831</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.3571814058518</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.497420222306342</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>100.6116716601516</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>304.274343829684</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2851,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>22.49891413969666</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>39.02074776178948</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>208.642724780751</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>14.3543651963902</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3246,16 +3246,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>229.2663389906592</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.79482613622854</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>374.7552726386488</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>393.553766680214</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>108.0255674923263</v>
+        <v>154.3199979017279</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>262.2425928248799</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>149.845198710546</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486177</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>373.8316553010464</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>13.99263448916707</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4185,25 +4185,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>93.17492089670182</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>797.8294529700718</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>387.7048622833419</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,19 +4333,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1208.050632634561</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>661.0860209274247</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
         <v>158.1111315252759</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1347.407170993182</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1073.521425932704</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>1073.521425932704</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>1073.521425932704</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>848.785727321469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>357.4116548619248</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>351.327468215599</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4576,43 +4576,43 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>767.6328345264143</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>486.272337731413</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>486.272337731413</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>486.272337731413</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>949.351898482965</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>711.0080363426483</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>486.272337731413</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.056920380548</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1820.932329693819</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.468399786879</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>1002.128184303776</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>581.0977722574635</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>172.3694881502956</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4804,52 +4804,52 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1558.042465712245</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2334.361056703999</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>3087.542073342617</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759722</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678873</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4271.962701385146</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4049.756217332004</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>3792.695725591514</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="V8" t="n">
-        <v>3442.858170927995</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>3442.858170927995</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>3042.214773096948</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.278100045038</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>910.1258565766884</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>534.2452883269079</v>
+        <v>585.2723041117894</v>
       </c>
       <c r="C10" t="n">
-        <v>534.2452883269079</v>
+        <v>414.1789316735059</v>
       </c>
       <c r="D10" t="n">
-        <v>534.2452883269079</v>
+        <v>414.1789316735059</v>
       </c>
       <c r="E10" t="n">
-        <v>534.2452883269079</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="F10" t="n">
-        <v>369.6141624374992</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4989,25 +4989,25 @@
         <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1189.476114944831</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1001.014659212078</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1001.014659212078</v>
+        <v>1341.530877027741</v>
       </c>
       <c r="W10" t="n">
-        <v>721.9449947209523</v>
+        <v>1062.461212536615</v>
       </c>
       <c r="X10" t="n">
-        <v>721.9449947209523</v>
+        <v>824.1173503962984</v>
       </c>
       <c r="Y10" t="n">
-        <v>721.9449947209523</v>
+        <v>772.9720105058337</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1577.399797459634</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1391.008029339544</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1391.008029339544</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1391.008029339544</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>1117.122284279066</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>1117.122284279066</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>878.7784221387498</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>878.7784221387498</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>1441.370725451664</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>1203.026863311347</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>1203.026863311347</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
         <v>1760.328909494509</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
         <v>1789.888428857139</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0699105066985</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>252.7383423677128</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1068.179960412907</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>794.2942153524291</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W25" t="n">
-        <v>794.2942153524291</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="X25" t="n">
-        <v>555.9503532121125</v>
+        <v>970.266373074494</v>
       </c>
       <c r="Y25" t="n">
-        <v>440.4380487617572</v>
+        <v>745.5306744632587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>311.2176947581669</v>
+        <v>905.320686964405</v>
       </c>
       <c r="C28" t="n">
-        <v>311.2176947581669</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="D28" t="n">
-        <v>311.2176947581669</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E28" t="n">
-        <v>311.2176947581669</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F28" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X28" t="n">
-        <v>311.2176947581669</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y28" t="n">
-        <v>311.2176947581669</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6499,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>494.6659264600851</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>494.6659264600851</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>494.6659264600851</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>494.6659264600851</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>276.8806887209868</v>
+        <v>449.516440688703</v>
       </c>
       <c r="C31" t="n">
-        <v>254.1545128223033</v>
+        <v>449.516440688703</v>
       </c>
       <c r="D31" t="n">
-        <v>254.1545128223033</v>
+        <v>449.516440688703</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>449.516440688703</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1068.179960412907</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>794.2942153524291</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W31" t="n">
-        <v>515.2245508613034</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X31" t="n">
-        <v>276.8806887209868</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y31" t="n">
-        <v>276.8806887209868</v>
+        <v>637.2161470827474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3947382540484</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3947382540484</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.371818948615</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.371818948615</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1832.990726493717</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1832.990726493717</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>224.0891023705292</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>224.0891023705292</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>224.0891023705292</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>224.0891023705292</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>224.0891023705292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>597.0490607929837</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W34" t="n">
-        <v>317.9793963018581</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X34" t="n">
-        <v>317.9793963018581</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>582.8821812028571</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E35" t="n">
-        <v>1287.649206862142</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.908073983737</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2106.908073983737</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.4303907575203</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>132.4303907575203</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>132.4303907575203</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>132.4303907575203</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>132.4303907575203</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>837.543623783007</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>558.4739592918813</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>320.1300971515647</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>320.1300971515647</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1692.113136769081</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1277.772921285978</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>182.7137268369972</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>591.0821058804529</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C40" t="n">
-        <v>419.9887334421693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.861373026049</v>
+        <v>1280.372040432062</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.861373026049</v>
+        <v>1006.486295371584</v>
       </c>
       <c r="W40" t="n">
-        <v>1241.861373026049</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="X40" t="n">
-        <v>1003.517510885733</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.7818122744973</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7456,7 +7456,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3292.280632587379</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="C43" t="n">
-        <v>3292.280632587379</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4591.113750344411</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>4308.315602890535</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V43" t="n">
-        <v>4034.429857830057</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W43" t="n">
-        <v>3755.360193338931</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X43" t="n">
-        <v>3517.016331198615</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y43" t="n">
-        <v>3292.280632587379</v>
+        <v>360.9485301626057</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>635.6676409272679</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1296.755812846556</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3558.234133677597</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="C46" t="n">
-        <v>3558.234133677597</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="D46" t="n">
-        <v>3398.739489000507</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>4150.971659063151</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V46" t="n">
-        <v>3877.085914002672</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W46" t="n">
-        <v>3782.969832288832</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X46" t="n">
-        <v>3782.969832288832</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y46" t="n">
-        <v>3558.234133677597</v>
+        <v>223.7237178177785</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175288</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
-        <v>425.427124839344</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>782.0306179295947</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>354.5090417861859</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>428.1366196128905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>885.2086776792868</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9482,22 +9482,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>296.6891607496966</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N27" t="n">
-        <v>458.6703921507826</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>461.302781541648</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,7 +10205,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>177.1904702224191</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10448,10 +10448,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>366.5331912799962</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.84900189613728</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>147.9380505529371</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>885.2086776792871</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11378,13 +11378,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>408.9682935664456</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,10 +11393,10 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>39.62962225803386</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>96.81981767500318</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>36.46078111520825</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>54.6059809125303</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.1311602192711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>177.3252891077976</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>62.37314297036308</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>146.883524574204</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>123.9640668687252</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>45.84716204233396</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25092,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>133.7570154462077</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.88054861921404</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>126.7830610274835</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>171.9445984870108</v>
+        <v>125.6501680776092</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>9.45650826981776</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882031</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26040,7 +26040,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.1187461534308</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>183.1040469495125</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608751.8266840259</v>
+        <v>608751.826684026</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840259</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608751.8266840262</v>
+        <v>608751.826684026</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608751.8266840259</v>
+        <v>608751.8266840262</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840262</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840262</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608751.826684026</v>
+        <v>608751.8266840262</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>488647.1790973708</v>
+      </c>
+      <c r="C2" t="n">
         <v>488647.1790973709</v>
       </c>
-      <c r="C2" t="n">
-        <v>488647.1790973708</v>
-      </c>
       <c r="D2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973709</v>
       </c>
       <c r="E2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="F2" t="n">
+        <v>434473.0013026405</v>
+      </c>
+      <c r="G2" t="n">
         <v>434473.0013026408</v>
       </c>
-      <c r="F2" t="n">
-        <v>434473.0013026407</v>
-      </c>
-      <c r="G2" t="n">
-        <v>434473.0013026407</v>
-      </c>
       <c r="H2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="I2" t="n">
         <v>434473.0013026408</v>
       </c>
       <c r="J2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="K2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="L2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="M2" t="n">
         <v>434473.0013026408</v>
       </c>
-      <c r="K2" t="n">
-        <v>434473.0013026408</v>
-      </c>
-      <c r="L2" t="n">
-        <v>434473.0013026408</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>434473.0013026407</v>
       </c>
-      <c r="N2" t="n">
-        <v>434473.0013026408</v>
-      </c>
       <c r="O2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="P2" t="n">
-        <v>434473.0013026405</v>
+        <v>434473.0013026406</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.9925474617</v>
+        <v>85879.99254746168</v>
       </c>
       <c r="E4" t="n">
         <v>30192.61954398331</v>
@@ -26432,10 +26432,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="H4" t="n">
         <v>30192.61954398332</v>
-      </c>
-      <c r="H4" t="n">
-        <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26453,7 +26453,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73890.50789376424</v>
+        <v>73890.50789376406</v>
       </c>
       <c r="C6" t="n">
-        <v>248846.0177868781</v>
+        <v>248846.0177868782</v>
       </c>
       <c r="D6" t="n">
-        <v>131938.6462846404</v>
+        <v>131938.6462846405</v>
       </c>
       <c r="E6" t="n">
-        <v>306446.2173328499</v>
+        <v>306265.6367402007</v>
       </c>
       <c r="F6" t="n">
-        <v>333415.171513784</v>
+        <v>333234.5909211348</v>
       </c>
       <c r="G6" t="n">
-        <v>333415.1715137841</v>
+        <v>333234.590921135</v>
       </c>
       <c r="H6" t="n">
-        <v>333415.1715137841</v>
+        <v>333234.5909211349</v>
       </c>
       <c r="I6" t="n">
-        <v>333415.1715137842</v>
+        <v>333234.590921135</v>
       </c>
       <c r="J6" t="n">
-        <v>196820.3707078891</v>
+        <v>196639.7901152401</v>
       </c>
       <c r="K6" t="n">
-        <v>333415.1715137842</v>
+        <v>333234.590921135</v>
       </c>
       <c r="L6" t="n">
-        <v>193415.8606490315</v>
+        <v>193235.2800563823</v>
       </c>
       <c r="M6" t="n">
-        <v>310905.9067397366</v>
+        <v>310725.3261470876</v>
       </c>
       <c r="N6" t="n">
-        <v>333415.1715137842</v>
+        <v>333234.590921135</v>
       </c>
       <c r="O6" t="n">
-        <v>333415.1715137842</v>
+        <v>333234.5909211349</v>
       </c>
       <c r="P6" t="n">
-        <v>333415.1715137839</v>
+        <v>333234.5909211349</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>397.3962466394445</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.45092283464038</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>125.6104543679507</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.7439112705374</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27678,7 +27678,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,10 +27824,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>177.8084225288043</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>105.2939281903808</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>226.6924401156289</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.3933248039117</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>171.8544551335629</v>
       </c>
     </row>
     <row r="11">
@@ -34701,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>367.8628411009266</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>686.5452198667498</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>264.4752373870339</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>372.0220958020414</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>832.0152842855368</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36202,22 +36202,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N27" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>121.3646874378037</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>309.8405727751575</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.15638339129857</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38098,13 +38098,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>353.1425107818302</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
